--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit3-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit3-Robo2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.252684333333333</v>
+        <v>1.168788</v>
       </c>
       <c r="H2">
-        <v>6.758053</v>
+        <v>3.506364</v>
       </c>
       <c r="I2">
-        <v>0.0222218921225531</v>
+        <v>0.0139255825297802</v>
       </c>
       <c r="J2">
-        <v>0.02372332054363385</v>
+        <v>0.01408364098536324</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="N2">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="O2">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="P2">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="Q2">
-        <v>2.821541942818778</v>
+        <v>0.4225628343279999</v>
       </c>
       <c r="R2">
-        <v>25.393877485369</v>
+        <v>3.803065508951999</v>
       </c>
       <c r="S2">
-        <v>0.02022161868803663</v>
+        <v>0.01065201360301419</v>
       </c>
       <c r="T2">
-        <v>0.02158789806924477</v>
+        <v>0.01079504783857834</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.252684333333333</v>
+        <v>1.168788</v>
       </c>
       <c r="H3">
-        <v>6.758053</v>
+        <v>3.506364</v>
       </c>
       <c r="I3">
-        <v>0.0222218921225531</v>
+        <v>0.0139255825297802</v>
       </c>
       <c r="J3">
-        <v>0.02372332054363385</v>
+        <v>0.01408364098536324</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.324603</v>
       </c>
       <c r="O3">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="P3">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="Q3">
-        <v>0.243742697551</v>
+        <v>0.126464030388</v>
       </c>
       <c r="R3">
-        <v>2.193684277959</v>
+        <v>1.138176273492</v>
       </c>
       <c r="S3">
-        <v>0.00174687174167814</v>
+        <v>0.003187920144769139</v>
       </c>
       <c r="T3">
-        <v>0.001864899624563797</v>
+        <v>0.003230727236267558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.252684333333333</v>
+        <v>1.168788</v>
       </c>
       <c r="H4">
-        <v>6.758053</v>
+        <v>3.506364</v>
       </c>
       <c r="I4">
-        <v>0.0222218921225531</v>
+        <v>0.0139255825297802</v>
       </c>
       <c r="J4">
-        <v>0.02372332054363385</v>
+        <v>0.01408364098536324</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="N4">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="O4">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="P4">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="Q4">
-        <v>0.03535738240122222</v>
+        <v>0.003397666715999999</v>
       </c>
       <c r="R4">
-        <v>0.318216441611</v>
+        <v>0.020386000296</v>
       </c>
       <c r="S4">
-        <v>0.0002534016928383244</v>
+        <v>8.564878199687516E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002705228498252804</v>
+        <v>5.786591051733835E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>239.321053</v>
       </c>
       <c r="I5">
-        <v>0.7869376908440661</v>
+        <v>0.9504675141158767</v>
       </c>
       <c r="J5">
-        <v>0.8401073583114818</v>
+        <v>0.9612555315680539</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="N5">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="O5">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="P5">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="Q5">
-        <v>99.91848078715212</v>
+        <v>28.84132465141711</v>
       </c>
       <c r="R5">
-        <v>899.266327084369</v>
+        <v>259.571921862754</v>
       </c>
       <c r="S5">
-        <v>0.7161025635320418</v>
+        <v>0.7270355023162682</v>
       </c>
       <c r="T5">
-        <v>0.7644862356048886</v>
+        <v>0.7367980665766426</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>239.321053</v>
       </c>
       <c r="I6">
-        <v>0.7869376908440661</v>
+        <v>0.9504675141158767</v>
       </c>
       <c r="J6">
-        <v>0.8401073583114818</v>
+        <v>0.9612555315680539</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,10 +812,10 @@
         <v>0.324603</v>
       </c>
       <c r="O6">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="P6">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="Q6">
         <v>8.631592418551</v>
@@ -824,10 +824,10 @@
         <v>77.68433176695899</v>
       </c>
       <c r="S6">
-        <v>0.06186148357734935</v>
+        <v>0.217586196392064</v>
       </c>
       <c r="T6">
-        <v>0.06604117219706808</v>
+        <v>0.2205079233471858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>239.321053</v>
       </c>
       <c r="I7">
-        <v>0.7869376908440661</v>
+        <v>0.9504675141158767</v>
       </c>
       <c r="J7">
-        <v>0.8401073583114818</v>
+        <v>0.9612555315680539</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="N7">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="O7">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="P7">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="Q7">
-        <v>1.252101158067889</v>
+        <v>0.231902100357</v>
       </c>
       <c r="R7">
-        <v>11.268910422611</v>
+        <v>1.391412602142</v>
       </c>
       <c r="S7">
-        <v>0.008973643734674816</v>
+        <v>0.00584581540754457</v>
       </c>
       <c r="T7">
-        <v>0.009579950509525004</v>
+        <v>0.003949541644225525</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.08885966666666667</v>
+        <v>0.09388066666666665</v>
       </c>
       <c r="H8">
-        <v>0.266579</v>
+        <v>0.2816419999999999</v>
       </c>
       <c r="I8">
-        <v>0.0008765675232405078</v>
+        <v>0.001118545854010694</v>
       </c>
       <c r="J8">
-        <v>0.0009357930556628316</v>
+        <v>0.001131241597962925</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="N8">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="O8">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="P8">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="Q8">
-        <v>0.1112988947518889</v>
+        <v>0.03394155363955555</v>
       </c>
       <c r="R8">
-        <v>1.001690052767</v>
+        <v>0.3054739827559999</v>
       </c>
       <c r="S8">
-        <v>0.0007976644883131456</v>
+        <v>0.0008556026742175431</v>
       </c>
       <c r="T8">
-        <v>0.0008515589148829108</v>
+        <v>0.0008670916263550734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.08885966666666667</v>
+        <v>0.09388066666666665</v>
       </c>
       <c r="H9">
-        <v>0.266579</v>
+        <v>0.2816419999999999</v>
       </c>
       <c r="I9">
-        <v>0.0008765675232405078</v>
+        <v>0.001118545854010694</v>
       </c>
       <c r="J9">
-        <v>0.0009357930556628316</v>
+        <v>0.001131241597962925</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -998,22 +998,22 @@
         <v>0.324603</v>
       </c>
       <c r="O9">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="P9">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="Q9">
-        <v>0.009614704792999999</v>
+        <v>0.010157982014</v>
       </c>
       <c r="R9">
-        <v>0.08653234313699999</v>
+        <v>0.09142183812599998</v>
       </c>
       <c r="S9">
-        <v>6.890732020373574E-05</v>
+        <v>0.0002560636047521221</v>
       </c>
       <c r="T9">
-        <v>7.356306276624233E-05</v>
+        <v>0.0002595020027232961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,55 +1027,55 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.08885966666666667</v>
+        <v>0.09388066666666665</v>
       </c>
       <c r="H10">
-        <v>0.266579</v>
+        <v>0.2816419999999999</v>
       </c>
       <c r="I10">
-        <v>0.0008765675232405078</v>
+        <v>0.001118545854010694</v>
       </c>
       <c r="J10">
-        <v>0.0009357930556628316</v>
+        <v>0.001131241597962925</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="N10">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="O10">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="P10">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="Q10">
-        <v>0.001394711708111111</v>
+        <v>0.000272911098</v>
       </c>
       <c r="R10">
-        <v>0.012552405373</v>
+        <v>0.001637466588</v>
       </c>
       <c r="S10">
-        <v>9.995714723626415E-06</v>
+        <v>6.879575041029371E-06</v>
       </c>
       <c r="T10">
-        <v>1.067107801367841E-05</v>
+        <v>4.647968884555114E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.2472955</v>
+        <v>2.8258325</v>
       </c>
       <c r="H11">
-        <v>38.494591</v>
+        <v>5.651664999999999</v>
       </c>
       <c r="I11">
-        <v>0.1898674030457745</v>
+        <v>0.03366852131788238</v>
       </c>
       <c r="J11">
-        <v>0.1351305651922355</v>
+        <v>0.0227004443433548</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="N11">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="O11">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="P11">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="Q11">
-        <v>24.10770596460717</v>
+        <v>1.021649598161666</v>
       </c>
       <c r="R11">
-        <v>144.646235787643</v>
+        <v>6.129897588969999</v>
       </c>
       <c r="S11">
-        <v>0.1727767466651845</v>
+        <v>0.02575386317265372</v>
       </c>
       <c r="T11">
-        <v>0.1229669709197704</v>
+        <v>0.01739978908140138</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.2472955</v>
+        <v>2.8258325</v>
       </c>
       <c r="H12">
-        <v>38.494591</v>
+        <v>5.651664999999999</v>
       </c>
       <c r="I12">
-        <v>0.1898674030457745</v>
+        <v>0.03366852131788238</v>
       </c>
       <c r="J12">
-        <v>0.1351305651922355</v>
+        <v>0.0227004443433548</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1184,22 +1184,22 @@
         <v>0.324603</v>
       </c>
       <c r="O12">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="P12">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="Q12">
-        <v>2.0825766203955</v>
+        <v>0.3057579023324999</v>
       </c>
       <c r="R12">
-        <v>12.495459722373</v>
+        <v>1.834547413995</v>
       </c>
       <c r="S12">
-        <v>0.01492555175847785</v>
+        <v>0.007707581146019073</v>
       </c>
       <c r="T12">
-        <v>0.01062266725396159</v>
+        <v>0.005207385213218048</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.2472955</v>
+        <v>2.8258325</v>
       </c>
       <c r="H13">
-        <v>38.494591</v>
+        <v>5.651664999999999</v>
       </c>
       <c r="I13">
-        <v>0.1898674030457745</v>
+        <v>0.03366852131788238</v>
       </c>
       <c r="J13">
-        <v>0.1351305651922355</v>
+        <v>0.0227004443433548</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="N13">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="O13">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="P13">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="Q13">
-        <v>0.3020991344028333</v>
+        <v>0.008214695077499999</v>
       </c>
       <c r="R13">
-        <v>1.812594806417</v>
+        <v>0.03285878031</v>
       </c>
       <c r="S13">
-        <v>0.002165104622112077</v>
+        <v>0.0002070769992095955</v>
       </c>
       <c r="T13">
-        <v>0.001540927018503494</v>
+        <v>9.327004873537746E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.009776999999999999</v>
+        <v>0.06880966666666666</v>
       </c>
       <c r="H14">
-        <v>0.029331</v>
+        <v>0.206429</v>
       </c>
       <c r="I14">
-        <v>9.644646436578774E-05</v>
+        <v>0.0008198361824499672</v>
       </c>
       <c r="J14">
-        <v>0.0001029628969860586</v>
+        <v>0.0008291415052651543</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="N14">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="O14">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="P14">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="Q14">
-        <v>0.012245930407</v>
+        <v>0.02487740101355555</v>
       </c>
       <c r="R14">
-        <v>0.110213373663</v>
+        <v>0.2238966091219999</v>
       </c>
       <c r="S14">
-        <v>8.776496688303606E-05</v>
+        <v>0.0006271124492655684</v>
       </c>
       <c r="T14">
-        <v>9.369483167252732E-05</v>
+        <v>0.0006355332561793038</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.009776999999999999</v>
+        <v>0.06880966666666666</v>
       </c>
       <c r="H15">
-        <v>0.029331</v>
+        <v>0.206429</v>
       </c>
       <c r="I15">
-        <v>9.644646436578774E-05</v>
+        <v>0.0008198361824499672</v>
       </c>
       <c r="J15">
-        <v>0.0001029628969860586</v>
+        <v>0.0008291415052651543</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1370,22 +1370,22 @@
         <v>0.324603</v>
       </c>
       <c r="O15">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="P15">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="Q15">
-        <v>0.001057881177</v>
+        <v>0.007445274742999998</v>
       </c>
       <c r="R15">
-        <v>0.009520930592999998</v>
+        <v>0.06700747268699998</v>
       </c>
       <c r="S15">
-        <v>7.581694765513311E-06</v>
+        <v>0.0001876813609666734</v>
       </c>
       <c r="T15">
-        <v>8.093954114902726E-06</v>
+        <v>0.0001902015286078329</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.009776999999999999</v>
+        <v>0.06880966666666666</v>
       </c>
       <c r="H16">
-        <v>0.029331</v>
+        <v>0.206429</v>
       </c>
       <c r="I16">
-        <v>9.644646436578774E-05</v>
+        <v>0.0008198361824499672</v>
       </c>
       <c r="J16">
-        <v>0.0001029628969860586</v>
+        <v>0.0008291415052651543</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="N16">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="O16">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="P16">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="Q16">
-        <v>0.000153456533</v>
+        <v>0.000200029701</v>
       </c>
       <c r="R16">
-        <v>0.001381108797</v>
+        <v>0.001200178206</v>
       </c>
       <c r="S16">
-        <v>1.099802717238366E-06</v>
+        <v>5.042372217725524E-06</v>
       </c>
       <c r="T16">
-        <v>1.174111198628555E-06</v>
+        <v>3.406720478017581E-06</v>
       </c>
     </row>
   </sheetData>
